--- a/crm接口文档/权限管理/获取权限列表信息.xlsx
+++ b/crm接口文档/权限管理/获取权限列表信息.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>URL</t>
   </si>
@@ -200,6 +200,30 @@
   </si>
   <si>
     <t>权限id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPage</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否分页标志（true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:分页，false:不分页）</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -731,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,7 +766,7 @@
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -798,7 +822,7 @@
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -818,99 +842,101 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -919,51 +945,51 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -971,13 +997,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -989,13 +1015,13 @@
         <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1007,13 +1033,13 @@
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1025,13 +1051,13 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1043,13 +1069,13 @@
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1061,68 +1087,86 @@
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>55</v>
+      <c r="B21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>53</v>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1138,7 +1182,7 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" tooltip="https://www.21mhealth.com/"/>
-    <hyperlink ref="D10" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
